--- a/simple_out_report.xlsx
+++ b/simple_out_report.xlsx
@@ -35,6 +35,16 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10.0"/>
+      <color rgb="000000"/>
+      <name val="SansSerif"/>
+      <b val="false"/>
+      <i val="false"/>
+      <u val="none"/>
+      <strike val="false"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14.0"/>
       <color rgb="FFFFFF"/>
       <name val="SansSerif"/>
@@ -64,16 +74,6 @@
       <strike val="false"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="10.0"/>
-      <color rgb="000000"/>
-      <name val="SansSerif"/>
-      <b val="false"/>
-      <i val="false"/>
-      <u val="none"/>
-      <strike val="false"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills>
     <fill>
@@ -82,6 +82,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="006699"/>
       </patternFill>
     </fill>
     <fill>
@@ -236,31 +241,35 @@
       <alignment wrapText="true"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment wrapText="true" horizontal="left" vertical="top"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="right" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="3" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="center" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true"/>
       <protection hidden="false" locked="false"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="center" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="1" xfId="0" applyAlignment="1" applyProtection="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment wrapText="true" horizontal="left" vertical="top"/>
       <protection hidden="false" locked="true"/>
     </xf>
@@ -292,11 +301,14 @@
     <col min="4" max="4" customWidth="1" width="18.166666"/>
     <col min="5" max="5" customWidth="1" width="0.33333334"/>
     <col min="6" max="6" customWidth="1" width="2.0"/>
-    <col min="7" max="7" customWidth="1" width="20.666666"/>
-    <col min="8" max="8" customWidth="1" width="2.8333333"/>
-    <col min="9" max="9" customWidth="1" width="23.333334"/>
-    <col min="10" max="10" customWidth="1" width="6.6666665"/>
-    <col min="11" max="11" customWidth="1" width="3.3333333"/>
+    <col min="7" max="7" customWidth="1" width="1.0"/>
+    <col min="8" max="8" customWidth="1" width="11.666667"/>
+    <col min="9" max="9" customWidth="1" width="8.0"/>
+    <col min="10" max="10" customWidth="1" width="2.8333333"/>
+    <col min="11" max="11" customWidth="1" width="2.5"/>
+    <col min="12" max="12" customWidth="1" width="20.833334"/>
+    <col min="13" max="13" customWidth="1" width="6.6666665"/>
+    <col min="14" max="14" customWidth="1" width="3.3333333"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" ht="20">
@@ -311,6 +323,9 @@
       <c r="I1" s="1" t="inlineStr"/>
       <c r="J1" s="1" t="inlineStr"/>
       <c r="K1" s="1" t="inlineStr"/>
+      <c r="L1" s="1" t="inlineStr"/>
+      <c r="M1" s="1" t="inlineStr"/>
+      <c r="N1" s="1" t="inlineStr"/>
     </row>
     <row r="2" customHeight="1" ht="23">
       <c r="A2" s="1" t="inlineStr"/>
@@ -326,12 +341,27 @@
       <c r="E2" s="2" t="inlineStr"/>
       <c r="F2" s="2" t="inlineStr"/>
       <c r="G2" s="3" t="inlineStr"/>
-      <c r="H2" s="3" t="inlineStr"/>
-      <c r="I2" s="3" t="inlineStr"/>
-      <c r="J2" s="3" t="inlineStr"/>
-      <c r="K2" s="1" t="inlineStr"/>
-    </row>
-    <row r="3" customHeight="1" ht="20">
+      <c r="H2" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Param 1</t>
+          </r>
+        </is>
+      </c>
+      <c r="I2" s="4" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Param 2</t>
+          </r>
+        </is>
+      </c>
+      <c r="J2" s="4" t="inlineStr"/>
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="inlineStr"/>
+      <c r="N2" s="1" t="inlineStr"/>
+    </row>
+    <row r="3" customHeight="1" ht="7">
       <c r="A3" s="1" t="inlineStr"/>
       <c r="B3" s="2" t="inlineStr"/>
       <c r="C3" s="2" t="inlineStr"/>
@@ -339,524 +369,608 @@
       <c r="E3" s="2" t="inlineStr"/>
       <c r="F3" s="2" t="inlineStr"/>
       <c r="G3" s="3" t="inlineStr"/>
-      <c r="H3" s="3" t="inlineStr"/>
-      <c r="I3" s="4" t="inlineStr">
+      <c r="H3" s="4" t="inlineStr"/>
+      <c r="I3" s="4" t="inlineStr"/>
+      <c r="J3" s="4" t="inlineStr"/>
+      <c r="K3" s="3" t="inlineStr"/>
+      <c r="L3" s="5" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">Employee Reports</t>
           </r>
         </is>
       </c>
-      <c r="J3" s="4" t="inlineStr"/>
-      <c r="K3" s="1" t="inlineStr"/>
-    </row>
-    <row r="4" customHeight="1" ht="29">
+      <c r="M3" s="5" t="inlineStr"/>
+      <c r="N3" s="1" t="inlineStr"/>
+    </row>
+    <row r="4" customHeight="1" ht="13">
       <c r="A4" s="1" t="inlineStr"/>
-      <c r="B4" s="1" t="inlineStr"/>
-      <c r="C4" s="1" t="inlineStr"/>
-      <c r="D4" s="1" t="inlineStr"/>
-      <c r="E4" s="1" t="inlineStr"/>
-      <c r="F4" s="1" t="inlineStr"/>
-      <c r="G4" s="1" t="inlineStr"/>
-      <c r="H4" s="1" t="inlineStr"/>
-      <c r="I4" s="1" t="inlineStr"/>
-      <c r="J4" s="1" t="inlineStr"/>
-      <c r="K4" s="1" t="inlineStr"/>
-    </row>
-    <row r="5" customHeight="1" ht="13">
-      <c r="A5" s="5" t="inlineStr"/>
-      <c r="B5" s="5" t="inlineStr"/>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
-      <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
-    </row>
-    <row r="6" customHeight="1" ht="20">
-      <c r="A6" s="5" t="inlineStr"/>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Id</t>
-          </r>
-        </is>
-      </c>
+      <c r="B4" s="2" t="inlineStr"/>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
+      <c r="E4" s="2" t="inlineStr"/>
+      <c r="F4" s="2" t="inlineStr"/>
+      <c r="G4" s="3" t="inlineStr"/>
+      <c r="H4" s="3" t="inlineStr"/>
+      <c r="I4" s="3" t="inlineStr"/>
+      <c r="J4" s="3" t="inlineStr"/>
+      <c r="K4" s="3" t="inlineStr"/>
+      <c r="L4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="inlineStr"/>
+      <c r="N4" s="1" t="inlineStr"/>
+    </row>
+    <row r="5" customHeight="1" ht="29">
+      <c r="A5" s="1" t="inlineStr"/>
+      <c r="B5" s="1" t="inlineStr"/>
+      <c r="C5" s="1" t="inlineStr"/>
+      <c r="D5" s="1" t="inlineStr"/>
+      <c r="E5" s="1" t="inlineStr"/>
+      <c r="F5" s="1" t="inlineStr"/>
+      <c r="G5" s="1" t="inlineStr"/>
+      <c r="H5" s="1" t="inlineStr"/>
+      <c r="I5" s="1" t="inlineStr"/>
+      <c r="J5" s="1" t="inlineStr"/>
+      <c r="K5" s="1" t="inlineStr"/>
+      <c r="L5" s="1" t="inlineStr"/>
+      <c r="M5" s="1" t="inlineStr"/>
+      <c r="N5" s="1" t="inlineStr"/>
+    </row>
+    <row r="6" customHeight="1" ht="13">
+      <c r="A6" s="6" t="inlineStr"/>
+      <c r="B6" s="6" t="inlineStr"/>
       <c r="C6" s="6" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="6" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Last Name</t>
-          </r>
-        </is>
-      </c>
+      <c r="D6" s="6" t="inlineStr"/>
+      <c r="E6" s="6" t="inlineStr"/>
       <c r="F6" s="6" t="inlineStr"/>
       <c r="G6" s="6" t="inlineStr"/>
-      <c r="H6" s="6" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Email</t>
-          </r>
-        </is>
-      </c>
+      <c r="H6" s="6" t="inlineStr"/>
       <c r="I6" s="6" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
-    </row>
-    <row r="7" customHeight="1" ht="1">
-      <c r="A7" s="7" t="inlineStr"/>
-      <c r="B7" s="7" t="inlineStr"/>
+      <c r="J6" s="6" t="inlineStr"/>
+      <c r="K6" s="6" t="inlineStr"/>
+      <c r="L6" s="6" t="inlineStr"/>
+      <c r="M6" s="6" t="inlineStr"/>
+      <c r="N6" s="6" t="inlineStr"/>
+    </row>
+    <row r="7" customHeight="1" ht="20">
+      <c r="A7" s="6" t="inlineStr"/>
+      <c r="B7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Id</t>
+          </r>
+        </is>
+      </c>
       <c r="C7" s="7" t="inlineStr"/>
-      <c r="D7" s="7" t="inlineStr"/>
-      <c r="E7" s="7" t="inlineStr"/>
+      <c r="D7" s="6" t="inlineStr"/>
+      <c r="E7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Last Name</t>
+          </r>
+        </is>
+      </c>
       <c r="F7" s="7" t="inlineStr"/>
       <c r="G7" s="7" t="inlineStr"/>
       <c r="H7" s="7" t="inlineStr"/>
       <c r="I7" s="7" t="inlineStr"/>
-      <c r="J7" s="7" t="inlineStr"/>
+      <c r="J7" s="7" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Email</t>
+          </r>
+        </is>
+      </c>
       <c r="K7" s="7" t="inlineStr"/>
-    </row>
-    <row r="8" customHeight="1" ht="19">
-      <c r="A8" s="5" t="inlineStr"/>
-      <c r="B8" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">12</t>
-          </r>
-        </is>
-      </c>
+      <c r="L7" s="7" t="inlineStr"/>
+      <c r="M7" s="6" t="inlineStr"/>
+      <c r="N7" s="6" t="inlineStr"/>
+    </row>
+    <row r="8" customHeight="1" ht="1">
+      <c r="A8" s="8" t="inlineStr"/>
+      <c r="B8" s="8" t="inlineStr"/>
       <c r="C8" s="8" t="inlineStr"/>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">firstName</t>
-          </r>
-        </is>
-      </c>
-      <c r="E8" s="8" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">lastName</t>
-          </r>
-        </is>
-      </c>
+      <c r="D8" s="8" t="inlineStr"/>
+      <c r="E8" s="8" t="inlineStr"/>
       <c r="F8" s="8" t="inlineStr"/>
       <c r="G8" s="8" t="inlineStr"/>
-      <c r="H8" s="8" t="inlineStr">
+      <c r="H8" s="8" t="inlineStr"/>
+      <c r="I8" s="8" t="inlineStr"/>
+      <c r="J8" s="8" t="inlineStr"/>
+      <c r="K8" s="8" t="inlineStr"/>
+      <c r="L8" s="8" t="inlineStr"/>
+      <c r="M8" s="8" t="inlineStr"/>
+      <c r="N8" s="8" t="inlineStr"/>
+    </row>
+    <row r="9" customHeight="1" ht="19">
+      <c r="A9" s="6" t="inlineStr"/>
+      <c r="B9" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">12</t>
+          </r>
+        </is>
+      </c>
+      <c r="C9" s="9" t="inlineStr"/>
+      <c r="D9" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">firstName</t>
+          </r>
+        </is>
+      </c>
+      <c r="E9" s="9" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">lastName</t>
+          </r>
+        </is>
+      </c>
+      <c r="F9" s="9" t="inlineStr"/>
+      <c r="G9" s="9" t="inlineStr"/>
+      <c r="H9" s="9" t="inlineStr"/>
+      <c r="I9" s="9" t="inlineStr"/>
+      <c r="J9" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">email@email.com</t>
           </r>
         </is>
       </c>
-      <c r="I8" s="8" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
-    </row>
-    <row r="9" customHeight="1" ht="1">
-      <c r="A9" s="5" t="inlineStr"/>
-      <c r="B9" s="8" t="inlineStr"/>
-      <c r="C9" s="8" t="inlineStr"/>
-      <c r="D9" s="8" t="inlineStr"/>
-      <c r="E9" s="8" t="inlineStr"/>
-      <c r="F9" s="8" t="inlineStr"/>
-      <c r="G9" s="8" t="inlineStr"/>
-      <c r="H9" s="8" t="inlineStr"/>
-      <c r="I9" s="8" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
-    </row>
-    <row r="10" customHeight="1" ht="19">
-      <c r="A10" s="5" t="inlineStr"/>
-      <c r="B10" s="8" t="inlineStr">
+      <c r="K9" s="9" t="inlineStr"/>
+      <c r="L9" s="9" t="inlineStr"/>
+      <c r="M9" s="6" t="inlineStr"/>
+      <c r="N9" s="6" t="inlineStr"/>
+    </row>
+    <row r="10" customHeight="1" ht="1">
+      <c r="A10" s="6" t="inlineStr"/>
+      <c r="B10" s="9" t="inlineStr"/>
+      <c r="C10" s="9" t="inlineStr"/>
+      <c r="D10" s="9" t="inlineStr"/>
+      <c r="E10" s="9" t="inlineStr"/>
+      <c r="F10" s="9" t="inlineStr"/>
+      <c r="G10" s="9" t="inlineStr"/>
+      <c r="H10" s="9" t="inlineStr"/>
+      <c r="I10" s="9" t="inlineStr"/>
+      <c r="J10" s="9" t="inlineStr"/>
+      <c r="K10" s="9" t="inlineStr"/>
+      <c r="L10" s="9" t="inlineStr"/>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
+    </row>
+    <row r="11" customHeight="1" ht="19">
+      <c r="A11" s="6" t="inlineStr"/>
+      <c r="B11" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">1224</t>
           </r>
         </is>
       </c>
-      <c r="C10" s="8" t="inlineStr"/>
-      <c r="D10" s="8" t="inlineStr">
+      <c r="C11" s="9" t="inlineStr"/>
+      <c r="D11" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">firswqrtName</t>
           </r>
         </is>
       </c>
-      <c r="E10" s="8" t="inlineStr">
+      <c r="E11" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">lastName</t>
           </r>
         </is>
       </c>
-      <c r="F10" s="8" t="inlineStr"/>
-      <c r="G10" s="8" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F11" s="9" t="inlineStr"/>
+      <c r="G11" s="9" t="inlineStr"/>
+      <c r="H11" s="9" t="inlineStr"/>
+      <c r="I11" s="9" t="inlineStr"/>
+      <c r="J11" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">emertil@email.com</t>
           </r>
         </is>
       </c>
-      <c r="I10" s="8" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
-    </row>
-    <row r="11" customHeight="1" ht="1">
-      <c r="A11" s="5" t="inlineStr"/>
-      <c r="B11" s="8" t="inlineStr"/>
-      <c r="C11" s="8" t="inlineStr"/>
-      <c r="D11" s="8" t="inlineStr"/>
-      <c r="E11" s="8" t="inlineStr"/>
-      <c r="F11" s="8" t="inlineStr"/>
-      <c r="G11" s="8" t="inlineStr"/>
-      <c r="H11" s="8" t="inlineStr"/>
-      <c r="I11" s="8" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
-    </row>
-    <row r="12" customHeight="1" ht="19">
-      <c r="A12" s="5" t="inlineStr"/>
-      <c r="B12" s="8" t="inlineStr">
+      <c r="K11" s="9" t="inlineStr"/>
+      <c r="L11" s="9" t="inlineStr"/>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
+    </row>
+    <row r="12" customHeight="1" ht="1">
+      <c r="A12" s="6" t="inlineStr"/>
+      <c r="B12" s="9" t="inlineStr"/>
+      <c r="C12" s="9" t="inlineStr"/>
+      <c r="D12" s="9" t="inlineStr"/>
+      <c r="E12" s="9" t="inlineStr"/>
+      <c r="F12" s="9" t="inlineStr"/>
+      <c r="G12" s="9" t="inlineStr"/>
+      <c r="H12" s="9" t="inlineStr"/>
+      <c r="I12" s="9" t="inlineStr"/>
+      <c r="J12" s="9" t="inlineStr"/>
+      <c r="K12" s="9" t="inlineStr"/>
+      <c r="L12" s="9" t="inlineStr"/>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13" customHeight="1" ht="19">
+      <c r="A13" s="6" t="inlineStr"/>
+      <c r="B13" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">13452</t>
           </r>
         </is>
       </c>
-      <c r="C12" s="8" t="inlineStr"/>
-      <c r="D12" s="8" t="inlineStr">
+      <c r="C13" s="9" t="inlineStr"/>
+      <c r="D13" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">firstertName</t>
           </r>
         </is>
       </c>
-      <c r="E12" s="8" t="inlineStr">
+      <c r="E13" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">lastName</t>
           </r>
         </is>
       </c>
-      <c r="F12" s="8" t="inlineStr"/>
-      <c r="G12" s="8" t="inlineStr"/>
-      <c r="H12" s="8" t="inlineStr">
+      <c r="F13" s="9" t="inlineStr"/>
+      <c r="G13" s="9" t="inlineStr"/>
+      <c r="H13" s="9" t="inlineStr"/>
+      <c r="I13" s="9" t="inlineStr"/>
+      <c r="J13" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">emaierl@email.com</t>
           </r>
         </is>
       </c>
-      <c r="I12" s="8" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
-    </row>
-    <row r="13" customHeight="1" ht="1">
-      <c r="A13" s="5" t="inlineStr"/>
-      <c r="B13" s="8" t="inlineStr"/>
-      <c r="C13" s="8" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr"/>
-      <c r="E13" s="8" t="inlineStr"/>
-      <c r="F13" s="8" t="inlineStr"/>
-      <c r="G13" s="8" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr"/>
-      <c r="I13" s="8" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
-    </row>
-    <row r="14" customHeight="1" ht="19">
-      <c r="A14" s="5" t="inlineStr"/>
-      <c r="B14" s="8" t="inlineStr">
+      <c r="K13" s="9" t="inlineStr"/>
+      <c r="L13" s="9" t="inlineStr"/>
+      <c r="M13" s="6" t="inlineStr"/>
+      <c r="N13" s="6" t="inlineStr"/>
+    </row>
+    <row r="14" customHeight="1" ht="1">
+      <c r="A14" s="6" t="inlineStr"/>
+      <c r="B14" s="9" t="inlineStr"/>
+      <c r="C14" s="9" t="inlineStr"/>
+      <c r="D14" s="9" t="inlineStr"/>
+      <c r="E14" s="9" t="inlineStr"/>
+      <c r="F14" s="9" t="inlineStr"/>
+      <c r="G14" s="9" t="inlineStr"/>
+      <c r="H14" s="9" t="inlineStr"/>
+      <c r="I14" s="9" t="inlineStr"/>
+      <c r="J14" s="9" t="inlineStr"/>
+      <c r="K14" s="9" t="inlineStr"/>
+      <c r="L14" s="9" t="inlineStr"/>
+      <c r="M14" s="6" t="inlineStr"/>
+      <c r="N14" s="6" t="inlineStr"/>
+    </row>
+    <row r="15" customHeight="1" ht="19">
+      <c r="A15" s="6" t="inlineStr"/>
+      <c r="B15" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">123245</t>
           </r>
         </is>
       </c>
-      <c r="C14" s="8" t="inlineStr"/>
-      <c r="D14" s="8" t="inlineStr">
+      <c r="C15" s="9" t="inlineStr"/>
+      <c r="D15" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">firswertName</t>
           </r>
         </is>
       </c>
-      <c r="E14" s="8" t="inlineStr">
+      <c r="E15" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">laerstName</t>
           </r>
         </is>
       </c>
-      <c r="F14" s="8" t="inlineStr"/>
-      <c r="G14" s="8" t="inlineStr"/>
-      <c r="H14" s="8" t="inlineStr">
+      <c r="F15" s="9" t="inlineStr"/>
+      <c r="G15" s="9" t="inlineStr"/>
+      <c r="H15" s="9" t="inlineStr"/>
+      <c r="I15" s="9" t="inlineStr"/>
+      <c r="J15" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">emaertil@email.com</t>
           </r>
         </is>
       </c>
-      <c r="I14" s="8" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
-    </row>
-    <row r="15" customHeight="1" ht="1">
-      <c r="A15" s="5" t="inlineStr"/>
-      <c r="B15" s="8" t="inlineStr"/>
-      <c r="C15" s="8" t="inlineStr"/>
-      <c r="D15" s="8" t="inlineStr"/>
-      <c r="E15" s="8" t="inlineStr"/>
-      <c r="F15" s="8" t="inlineStr"/>
-      <c r="G15" s="8" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr"/>
-      <c r="I15" s="8" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
-    </row>
-    <row r="16" customHeight="1" ht="19">
-      <c r="A16" s="5" t="inlineStr"/>
-      <c r="B16" s="8" t="inlineStr">
+      <c r="K15" s="9" t="inlineStr"/>
+      <c r="L15" s="9" t="inlineStr"/>
+      <c r="M15" s="6" t="inlineStr"/>
+      <c r="N15" s="6" t="inlineStr"/>
+    </row>
+    <row r="16" customHeight="1" ht="1">
+      <c r="A16" s="6" t="inlineStr"/>
+      <c r="B16" s="9" t="inlineStr"/>
+      <c r="C16" s="9" t="inlineStr"/>
+      <c r="D16" s="9" t="inlineStr"/>
+      <c r="E16" s="9" t="inlineStr"/>
+      <c r="F16" s="9" t="inlineStr"/>
+      <c r="G16" s="9" t="inlineStr"/>
+      <c r="H16" s="9" t="inlineStr"/>
+      <c r="I16" s="9" t="inlineStr"/>
+      <c r="J16" s="9" t="inlineStr"/>
+      <c r="K16" s="9" t="inlineStr"/>
+      <c r="L16" s="9" t="inlineStr"/>
+      <c r="M16" s="6" t="inlineStr"/>
+      <c r="N16" s="6" t="inlineStr"/>
+    </row>
+    <row r="17" customHeight="1" ht="19">
+      <c r="A17" s="6" t="inlineStr"/>
+      <c r="B17" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">123452</t>
           </r>
         </is>
       </c>
-      <c r="C16" s="8" t="inlineStr"/>
-      <c r="D16" s="8" t="inlineStr">
+      <c r="C17" s="9" t="inlineStr"/>
+      <c r="D17" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">firsetName</t>
           </r>
         </is>
       </c>
-      <c r="E16" s="8" t="inlineStr">
+      <c r="E17" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">lastName</t>
           </r>
         </is>
       </c>
-      <c r="F16" s="8" t="inlineStr"/>
-      <c r="G16" s="8" t="inlineStr"/>
-      <c r="H16" s="8" t="inlineStr">
+      <c r="F17" s="9" t="inlineStr"/>
+      <c r="G17" s="9" t="inlineStr"/>
+      <c r="H17" s="9" t="inlineStr"/>
+      <c r="I17" s="9" t="inlineStr"/>
+      <c r="J17" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">email@eertmail.com</t>
           </r>
         </is>
       </c>
-      <c r="I16" s="8" t="inlineStr"/>
-      <c r="J16" s="5" t="inlineStr"/>
-      <c r="K16" s="5" t="inlineStr"/>
-    </row>
-    <row r="17" customHeight="1" ht="1">
-      <c r="A17" s="5" t="inlineStr"/>
-      <c r="B17" s="8" t="inlineStr"/>
-      <c r="C17" s="8" t="inlineStr"/>
-      <c r="D17" s="8" t="inlineStr"/>
-      <c r="E17" s="8" t="inlineStr"/>
-      <c r="F17" s="8" t="inlineStr"/>
-      <c r="G17" s="8" t="inlineStr"/>
-      <c r="H17" s="8" t="inlineStr"/>
-      <c r="I17" s="8" t="inlineStr"/>
-      <c r="J17" s="5" t="inlineStr"/>
-      <c r="K17" s="5" t="inlineStr"/>
-    </row>
-    <row r="18" customHeight="1" ht="19">
-      <c r="A18" s="5" t="inlineStr"/>
-      <c r="B18" s="8" t="inlineStr">
+      <c r="K17" s="9" t="inlineStr"/>
+      <c r="L17" s="9" t="inlineStr"/>
+      <c r="M17" s="6" t="inlineStr"/>
+      <c r="N17" s="6" t="inlineStr"/>
+    </row>
+    <row r="18" customHeight="1" ht="1">
+      <c r="A18" s="6" t="inlineStr"/>
+      <c r="B18" s="9" t="inlineStr"/>
+      <c r="C18" s="9" t="inlineStr"/>
+      <c r="D18" s="9" t="inlineStr"/>
+      <c r="E18" s="9" t="inlineStr"/>
+      <c r="F18" s="9" t="inlineStr"/>
+      <c r="G18" s="9" t="inlineStr"/>
+      <c r="H18" s="9" t="inlineStr"/>
+      <c r="I18" s="9" t="inlineStr"/>
+      <c r="J18" s="9" t="inlineStr"/>
+      <c r="K18" s="9" t="inlineStr"/>
+      <c r="L18" s="9" t="inlineStr"/>
+      <c r="M18" s="6" t="inlineStr"/>
+      <c r="N18" s="6" t="inlineStr"/>
+    </row>
+    <row r="19" customHeight="1" ht="19">
+      <c r="A19" s="6" t="inlineStr"/>
+      <c r="B19" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">1345562</t>
           </r>
         </is>
       </c>
-      <c r="C18" s="8" t="inlineStr"/>
-      <c r="D18" s="8" t="inlineStr">
+      <c r="C19" s="9" t="inlineStr"/>
+      <c r="D19" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">firstertName</t>
           </r>
         </is>
       </c>
-      <c r="E18" s="8" t="inlineStr">
+      <c r="E19" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">lastNertame</t>
           </r>
         </is>
       </c>
-      <c r="F18" s="8" t="inlineStr"/>
-      <c r="G18" s="8" t="inlineStr"/>
-      <c r="H18" s="8" t="inlineStr">
+      <c r="F19" s="9" t="inlineStr"/>
+      <c r="G19" s="9" t="inlineStr"/>
+      <c r="H19" s="9" t="inlineStr"/>
+      <c r="I19" s="9" t="inlineStr"/>
+      <c r="J19" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">email@ertemail.com</t>
           </r>
         </is>
       </c>
-      <c r="I18" s="8" t="inlineStr"/>
-      <c r="J18" s="5" t="inlineStr"/>
-      <c r="K18" s="5" t="inlineStr"/>
-    </row>
-    <row r="19" customHeight="1" ht="1">
-      <c r="A19" s="5" t="inlineStr"/>
-      <c r="B19" s="8" t="inlineStr"/>
-      <c r="C19" s="8" t="inlineStr"/>
-      <c r="D19" s="8" t="inlineStr"/>
-      <c r="E19" s="8" t="inlineStr"/>
-      <c r="F19" s="8" t="inlineStr"/>
-      <c r="G19" s="8" t="inlineStr"/>
-      <c r="H19" s="8" t="inlineStr"/>
-      <c r="I19" s="8" t="inlineStr"/>
-      <c r="J19" s="5" t="inlineStr"/>
-      <c r="K19" s="5" t="inlineStr"/>
-    </row>
-    <row r="20" customHeight="1" ht="19">
-      <c r="A20" s="5" t="inlineStr"/>
-      <c r="B20" s="8" t="inlineStr">
+      <c r="K19" s="9" t="inlineStr"/>
+      <c r="L19" s="9" t="inlineStr"/>
+      <c r="M19" s="6" t="inlineStr"/>
+      <c r="N19" s="6" t="inlineStr"/>
+    </row>
+    <row r="20" customHeight="1" ht="1">
+      <c r="A20" s="6" t="inlineStr"/>
+      <c r="B20" s="9" t="inlineStr"/>
+      <c r="C20" s="9" t="inlineStr"/>
+      <c r="D20" s="9" t="inlineStr"/>
+      <c r="E20" s="9" t="inlineStr"/>
+      <c r="F20" s="9" t="inlineStr"/>
+      <c r="G20" s="9" t="inlineStr"/>
+      <c r="H20" s="9" t="inlineStr"/>
+      <c r="I20" s="9" t="inlineStr"/>
+      <c r="J20" s="9" t="inlineStr"/>
+      <c r="K20" s="9" t="inlineStr"/>
+      <c r="L20" s="9" t="inlineStr"/>
+      <c r="M20" s="6" t="inlineStr"/>
+      <c r="N20" s="6" t="inlineStr"/>
+    </row>
+    <row r="21" customHeight="1" ht="19">
+      <c r="A21" s="6" t="inlineStr"/>
+      <c r="B21" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">13452342</t>
           </r>
         </is>
       </c>
-      <c r="C20" s="8" t="inlineStr"/>
-      <c r="D20" s="8" t="inlineStr">
+      <c r="C21" s="9" t="inlineStr"/>
+      <c r="D21" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">firstewrtName</t>
           </r>
         </is>
       </c>
-      <c r="E20" s="8" t="inlineStr">
+      <c r="E21" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">lastertName</t>
           </r>
         </is>
       </c>
-      <c r="F20" s="8" t="inlineStr"/>
-      <c r="G20" s="8" t="inlineStr"/>
-      <c r="H20" s="8" t="inlineStr">
+      <c r="F21" s="9" t="inlineStr"/>
+      <c r="G21" s="9" t="inlineStr"/>
+      <c r="H21" s="9" t="inlineStr"/>
+      <c r="I21" s="9" t="inlineStr"/>
+      <c r="J21" s="9" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve">email@email.com</t>
           </r>
         </is>
       </c>
-      <c r="I20" s="8" t="inlineStr"/>
-      <c r="J20" s="5" t="inlineStr"/>
-      <c r="K20" s="5" t="inlineStr"/>
-    </row>
-    <row r="21" customHeight="1" ht="1">
-      <c r="A21" s="5" t="inlineStr"/>
-      <c r="B21" s="8" t="inlineStr"/>
-      <c r="C21" s="8" t="inlineStr"/>
-      <c r="D21" s="8" t="inlineStr"/>
-      <c r="E21" s="8" t="inlineStr"/>
-      <c r="F21" s="8" t="inlineStr"/>
-      <c r="G21" s="8" t="inlineStr"/>
-      <c r="H21" s="8" t="inlineStr"/>
-      <c r="I21" s="8" t="inlineStr"/>
-      <c r="J21" s="5" t="inlineStr"/>
-      <c r="K21" s="5" t="inlineStr"/>
-    </row>
-    <row r="22" customHeight="1" ht="543">
-      <c r="A22" s="5" t="inlineStr"/>
-      <c r="B22" s="5" t="inlineStr"/>
-      <c r="C22" s="5" t="inlineStr"/>
-      <c r="D22" s="5" t="inlineStr"/>
-      <c r="E22" s="5" t="inlineStr"/>
-      <c r="F22" s="5" t="inlineStr"/>
-      <c r="G22" s="5" t="inlineStr"/>
-      <c r="H22" s="5" t="inlineStr"/>
-      <c r="I22" s="5" t="inlineStr"/>
-      <c r="J22" s="5" t="inlineStr"/>
-      <c r="K22" s="5" t="inlineStr"/>
-    </row>
-    <row r="23" customHeight="1" ht="13">
-      <c r="A23" s="5" t="inlineStr"/>
-      <c r="B23" s="9" t="inlineStr">
-        <is>
-          <r>
-            <t xml:space="preserve">Monday 11 </t>
-          </r>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr"/>
-      <c r="D23" s="5" t="inlineStr"/>
-      <c r="E23" s="5" t="inlineStr"/>
-      <c r="F23" s="5" t="inlineStr"/>
-      <c r="G23" s="5" t="inlineStr"/>
-      <c r="H23" s="5" t="inlineStr"/>
-      <c r="I23" s="5" t="inlineStr"/>
-      <c r="J23" s="10" t="inlineStr">
+      <c r="K21" s="9" t="inlineStr"/>
+      <c r="L21" s="9" t="inlineStr"/>
+      <c r="M21" s="6" t="inlineStr"/>
+      <c r="N21" s="6" t="inlineStr"/>
+    </row>
+    <row r="22" customHeight="1" ht="1">
+      <c r="A22" s="6" t="inlineStr"/>
+      <c r="B22" s="9" t="inlineStr"/>
+      <c r="C22" s="9" t="inlineStr"/>
+      <c r="D22" s="9" t="inlineStr"/>
+      <c r="E22" s="9" t="inlineStr"/>
+      <c r="F22" s="9" t="inlineStr"/>
+      <c r="G22" s="9" t="inlineStr"/>
+      <c r="H22" s="9" t="inlineStr"/>
+      <c r="I22" s="9" t="inlineStr"/>
+      <c r="J22" s="9" t="inlineStr"/>
+      <c r="K22" s="9" t="inlineStr"/>
+      <c r="L22" s="9" t="inlineStr"/>
+      <c r="M22" s="6" t="inlineStr"/>
+      <c r="N22" s="6" t="inlineStr"/>
+    </row>
+    <row r="23" customHeight="1" ht="543">
+      <c r="A23" s="6" t="inlineStr"/>
+      <c r="B23" s="6" t="inlineStr"/>
+      <c r="C23" s="6" t="inlineStr"/>
+      <c r="D23" s="6" t="inlineStr"/>
+      <c r="E23" s="6" t="inlineStr"/>
+      <c r="F23" s="6" t="inlineStr"/>
+      <c r="G23" s="6" t="inlineStr"/>
+      <c r="H23" s="6" t="inlineStr"/>
+      <c r="I23" s="6" t="inlineStr"/>
+      <c r="J23" s="6" t="inlineStr"/>
+      <c r="K23" s="6" t="inlineStr"/>
+      <c r="L23" s="6" t="inlineStr"/>
+      <c r="M23" s="6" t="inlineStr"/>
+      <c r="N23" s="6" t="inlineStr"/>
+    </row>
+    <row r="24" customHeight="1" ht="13">
+      <c r="A24" s="6" t="inlineStr"/>
+      <c r="B24" s="10" t="inlineStr">
+        <is>
+          <r>
+            <t xml:space="preserve">Wednesday 13 </t>
+          </r>
+        </is>
+      </c>
+      <c r="C24" s="6" t="inlineStr"/>
+      <c r="D24" s="6" t="inlineStr"/>
+      <c r="E24" s="6" t="inlineStr"/>
+      <c r="F24" s="6" t="inlineStr"/>
+      <c r="G24" s="6" t="inlineStr"/>
+      <c r="H24" s="6" t="inlineStr"/>
+      <c r="I24" s="6" t="inlineStr"/>
+      <c r="J24" s="6" t="inlineStr"/>
+      <c r="K24" s="6" t="inlineStr"/>
+      <c r="L24" s="6" t="inlineStr"/>
+      <c r="M24" s="11" t="inlineStr">
         <is>
           <r>
             <t xml:space="preserve"> 1</t>
           </r>
         </is>
       </c>
-      <c r="K23" s="5" t="inlineStr"/>
-    </row>
-    <row r="24" customHeight="1" ht="20">
-      <c r="A24" s="5" t="inlineStr"/>
-      <c r="B24" s="5" t="inlineStr"/>
-      <c r="C24" s="5" t="inlineStr"/>
-      <c r="D24" s="5" t="inlineStr"/>
-      <c r="E24" s="5" t="inlineStr"/>
-      <c r="F24" s="5" t="inlineStr"/>
-      <c r="G24" s="5" t="inlineStr"/>
-      <c r="H24" s="5" t="inlineStr"/>
-      <c r="I24" s="5" t="inlineStr"/>
-      <c r="J24" s="5" t="inlineStr"/>
-      <c r="K24" s="5" t="inlineStr"/>
+      <c r="N24" s="6" t="inlineStr"/>
+    </row>
+    <row r="25" customHeight="1" ht="20">
+      <c r="A25" s="6" t="inlineStr"/>
+      <c r="B25" s="6" t="inlineStr"/>
+      <c r="C25" s="6" t="inlineStr"/>
+      <c r="D25" s="6" t="inlineStr"/>
+      <c r="E25" s="6" t="inlineStr"/>
+      <c r="F25" s="6" t="inlineStr"/>
+      <c r="G25" s="6" t="inlineStr"/>
+      <c r="H25" s="6" t="inlineStr"/>
+      <c r="I25" s="6" t="inlineStr"/>
+      <c r="J25" s="6" t="inlineStr"/>
+      <c r="K25" s="6" t="inlineStr"/>
+      <c r="L25" s="6" t="inlineStr"/>
+      <c r="M25" s="6" t="inlineStr"/>
+      <c r="N25" s="6" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="B2:F3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:G9"/>
-    <mergeCell ref="H8:I9"/>
-    <mergeCell ref="B10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:G11"/>
-    <mergeCell ref="H10:I11"/>
-    <mergeCell ref="B12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:G13"/>
-    <mergeCell ref="H12:I13"/>
-    <mergeCell ref="B14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:G15"/>
-    <mergeCell ref="H14:I15"/>
-    <mergeCell ref="B16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:G17"/>
-    <mergeCell ref="H16:I17"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:G19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:G21"/>
-    <mergeCell ref="H20:I21"/>
+    <mergeCell ref="B2:F4"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:J3"/>
+    <mergeCell ref="L3:M4"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="E7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="A8:N8"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="E9:I10"/>
+    <mergeCell ref="J9:L10"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:D12"/>
+    <mergeCell ref="E11:I12"/>
+    <mergeCell ref="J11:L12"/>
+    <mergeCell ref="B13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="E13:I14"/>
+    <mergeCell ref="J13:L14"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="E15:I16"/>
+    <mergeCell ref="J15:L16"/>
+    <mergeCell ref="B17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="E17:I18"/>
+    <mergeCell ref="J17:L18"/>
+    <mergeCell ref="B19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="E19:I20"/>
+    <mergeCell ref="J19:L20"/>
+    <mergeCell ref="B21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:I22"/>
+    <mergeCell ref="J21:L22"/>
   </mergeCells>
   <pageMargins left="0.0" right="0.0" top="0.0" bottom="0.00" header="0.0" footer="0.0"/>
   <pageSetup orientation="portrait" paperSize="9"/>
